--- a/different_costs-rand-multiple_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-rand-multiple_destination-100nodes-80_300flows.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Dropbox\doutorado\Doutorado\A-orientacao-kleber\artigo1-katia-leizer-kleber\resultados\resultados-custos-diferentes\data\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DD450A7F-3641-4A87-9062-73BA538A2281}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69659F43-2B6C-4A33-84A9-22C6F936FB62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="different_costs-rand-multiple_d" sheetId="1" r:id="rId1"/>
+    <sheet name="graphics" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -639,6 +643,1191 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12827</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43A48A9-EA7A-49C1-8CA8-093F457C95AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="184150"/>
+          <a:ext cx="7328027" cy="3767655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9B0C48-3C62-4CDF-9BCE-7DA014299AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534401" y="184150"/>
+          <a:ext cx="3917950" cy="3784654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>522532</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0AD9DD-4046-48C7-9EFE-CC9BB5582545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="184151"/>
+          <a:ext cx="2351332" cy="3778250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>524671</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF286267-0E9B-440A-8C96-1BCE85C0A429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="184150"/>
+          <a:ext cx="4791871" cy="3200677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB8D488-B777-4637-9122-EDE353EB456B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4235450"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482154</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>109946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4B0F40-7E77-4950-B704-848D751CD2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7366000"/>
+          <a:ext cx="6578154" cy="5450296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969984B9-CE3B-430E-BD25-6FC8F458996E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="4235450"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98179</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>50235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E1A22A-BA7C-4869-8F23-DD81CFB3D401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="7366000"/>
+          <a:ext cx="7413379" cy="5206435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="bar-oriq-destq"/>
+      <sheetName val="Planilha2"/>
+      <sheetName val="Planilha1"/>
+      <sheetName val="bar-oq-mdest"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="114">
+          <cell r="AD114" t="str">
+            <v>z^o_2(x)</v>
+          </cell>
+          <cell r="AE114" t="str">
+            <v>z^f_2(x)</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="AD115">
+            <v>1402</v>
+          </cell>
+          <cell r="AE115">
+            <v>1600</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="AD116">
+            <v>1402</v>
+          </cell>
+          <cell r="AE116">
+            <v>1629</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="AD117">
+            <v>1404</v>
+          </cell>
+          <cell r="AE117">
+            <v>1649</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="AD118">
+            <v>1407</v>
+          </cell>
+          <cell r="AE118">
+            <v>1592</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="AD119">
+            <v>1409</v>
+          </cell>
+          <cell r="AE119">
+            <v>1604</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="AD120">
+            <v>1409</v>
+          </cell>
+          <cell r="AE120">
+            <v>1606</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="AD121">
+            <v>1414</v>
+          </cell>
+          <cell r="AE121">
+            <v>1628</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="AD122">
+            <v>1415</v>
+          </cell>
+          <cell r="AE122">
+            <v>1662</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="AD123">
+            <v>1419</v>
+          </cell>
+          <cell r="AE123">
+            <v>1569</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="AD124">
+            <v>1421</v>
+          </cell>
+          <cell r="AE124">
+            <v>1599</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="AD125">
+            <v>1423</v>
+          </cell>
+          <cell r="AE125">
+            <v>1529</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="AD126">
+            <v>1423</v>
+          </cell>
+          <cell r="AE126">
+            <v>1637</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="AD127">
+            <v>1425</v>
+          </cell>
+          <cell r="AE127">
+            <v>1608</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="AD128">
+            <v>1425</v>
+          </cell>
+          <cell r="AE128">
+            <v>1647</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="AD129">
+            <v>1427</v>
+          </cell>
+          <cell r="AE129">
+            <v>1633</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="AD130">
+            <v>1427</v>
+          </cell>
+          <cell r="AE130">
+            <v>1610</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="AD131">
+            <v>1429</v>
+          </cell>
+          <cell r="AE131">
+            <v>1619</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="AD132">
+            <v>1429</v>
+          </cell>
+          <cell r="AE132">
+            <v>1639</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="AD133">
+            <v>1430</v>
+          </cell>
+          <cell r="AE133">
+            <v>1512</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="AD134">
+            <v>1430</v>
+          </cell>
+          <cell r="AE134">
+            <v>1648</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="AD135">
+            <v>1430</v>
+          </cell>
+          <cell r="AE135">
+            <v>1652</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="AD136">
+            <v>1432</v>
+          </cell>
+          <cell r="AE136">
+            <v>1631</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="AD137">
+            <v>1433</v>
+          </cell>
+          <cell r="AE137">
+            <v>1655</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="AD138">
+            <v>1437</v>
+          </cell>
+          <cell r="AE138">
+            <v>1625</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="AD139">
+            <v>1438</v>
+          </cell>
+          <cell r="AE139">
+            <v>1596</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="AD140">
+            <v>1438</v>
+          </cell>
+          <cell r="AE140">
+            <v>1614</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="AD141">
+            <v>1440</v>
+          </cell>
+          <cell r="AE141">
+            <v>1633</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="AD142">
+            <v>1440</v>
+          </cell>
+          <cell r="AE142">
+            <v>1685</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="AD143">
+            <v>1441</v>
+          </cell>
+          <cell r="AE143">
+            <v>1641</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="AD144">
+            <v>1441</v>
+          </cell>
+          <cell r="AE144">
+            <v>1637</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="AD145">
+            <v>1441</v>
+          </cell>
+          <cell r="AE145">
+            <v>1636</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="AD146">
+            <v>1442</v>
+          </cell>
+          <cell r="AE146">
+            <v>1648</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="AD147">
+            <v>1443</v>
+          </cell>
+          <cell r="AE147">
+            <v>1635</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="AD148">
+            <v>1443</v>
+          </cell>
+          <cell r="AE148">
+            <v>1650</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="AD149">
+            <v>1443</v>
+          </cell>
+          <cell r="AE149">
+            <v>1556</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="AD150">
+            <v>1444</v>
+          </cell>
+          <cell r="AE150">
+            <v>1617</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="AD151">
+            <v>1444</v>
+          </cell>
+          <cell r="AE151">
+            <v>1641</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="AD152">
+            <v>1447</v>
+          </cell>
+          <cell r="AE152">
+            <v>1539</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="AD153">
+            <v>1451</v>
+          </cell>
+          <cell r="AE153">
+            <v>1647</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="AD154">
+            <v>1452</v>
+          </cell>
+          <cell r="AE154">
+            <v>1630</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="AD155">
+            <v>1452</v>
+          </cell>
+          <cell r="AE155">
+            <v>1605</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="AD156">
+            <v>1453</v>
+          </cell>
+          <cell r="AE156">
+            <v>1652</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="AD157">
+            <v>1453</v>
+          </cell>
+          <cell r="AE157">
+            <v>1658</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="AD158">
+            <v>1453</v>
+          </cell>
+          <cell r="AE158">
+            <v>1620</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="AD159">
+            <v>1454</v>
+          </cell>
+          <cell r="AE159">
+            <v>1653</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="AD160">
+            <v>1455</v>
+          </cell>
+          <cell r="AE160">
+            <v>1644</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="AD161">
+            <v>1455</v>
+          </cell>
+          <cell r="AE161">
+            <v>1625</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="AD162">
+            <v>1456</v>
+          </cell>
+          <cell r="AE162">
+            <v>1702</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="AD163">
+            <v>1456</v>
+          </cell>
+          <cell r="AE163">
+            <v>1654</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="AD164">
+            <v>1456</v>
+          </cell>
+          <cell r="AE164">
+            <v>1648</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="AD165">
+            <v>1457</v>
+          </cell>
+          <cell r="AE165">
+            <v>1667</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="AD166">
+            <v>1457</v>
+          </cell>
+          <cell r="AE166">
+            <v>1676</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="AD167">
+            <v>1460</v>
+          </cell>
+          <cell r="AE167">
+            <v>1567</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="AD168">
+            <v>1460</v>
+          </cell>
+          <cell r="AE168">
+            <v>1681</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="AD169">
+            <v>1460</v>
+          </cell>
+          <cell r="AE169">
+            <v>1640</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="AD170">
+            <v>1460</v>
+          </cell>
+          <cell r="AE170">
+            <v>1659</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="AD171">
+            <v>1462</v>
+          </cell>
+          <cell r="AE171">
+            <v>1658</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="AD172">
+            <v>1462</v>
+          </cell>
+          <cell r="AE172">
+            <v>1677</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="AD173">
+            <v>1465</v>
+          </cell>
+          <cell r="AE173">
+            <v>1639</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="AD174">
+            <v>1465</v>
+          </cell>
+          <cell r="AE174">
+            <v>1630</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="AD175">
+            <v>1465</v>
+          </cell>
+          <cell r="AE175">
+            <v>1677</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="AD176">
+            <v>1465</v>
+          </cell>
+          <cell r="AE176">
+            <v>1616</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="AD177">
+            <v>1465</v>
+          </cell>
+          <cell r="AE177">
+            <v>1678</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="AD178">
+            <v>1465</v>
+          </cell>
+          <cell r="AE178">
+            <v>1698</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="AD179">
+            <v>1466</v>
+          </cell>
+          <cell r="AE179">
+            <v>1571</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="AD180">
+            <v>1466</v>
+          </cell>
+          <cell r="AE180">
+            <v>1643</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="AD181">
+            <v>1467</v>
+          </cell>
+          <cell r="AE181">
+            <v>1675</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="AD182">
+            <v>1468</v>
+          </cell>
+          <cell r="AE182">
+            <v>1652</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="AD183">
+            <v>1468</v>
+          </cell>
+          <cell r="AE183">
+            <v>1636</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="AD184">
+            <v>1469</v>
+          </cell>
+          <cell r="AE184">
+            <v>1638</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="AD185">
+            <v>1469</v>
+          </cell>
+          <cell r="AE185">
+            <v>1655</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="AD186">
+            <v>1472</v>
+          </cell>
+          <cell r="AE186">
+            <v>1577</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="AD187">
+            <v>1473</v>
+          </cell>
+          <cell r="AE187">
+            <v>1572</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="AD188">
+            <v>1474</v>
+          </cell>
+          <cell r="AE188">
+            <v>1665</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="AD189">
+            <v>1476</v>
+          </cell>
+          <cell r="AE189">
+            <v>1712</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="AD190">
+            <v>1477</v>
+          </cell>
+          <cell r="AE190">
+            <v>1665</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="AD191">
+            <v>1477</v>
+          </cell>
+          <cell r="AE191">
+            <v>1652</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="AD192">
+            <v>1477</v>
+          </cell>
+          <cell r="AE192">
+            <v>1686</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="AD193">
+            <v>1478</v>
+          </cell>
+          <cell r="AE193">
+            <v>1591</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="AD194">
+            <v>1478</v>
+          </cell>
+          <cell r="AE194">
+            <v>1654</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="AD195">
+            <v>1479</v>
+          </cell>
+          <cell r="AE195">
+            <v>1702</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="AD196">
+            <v>1483</v>
+          </cell>
+          <cell r="AE196">
+            <v>1671</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="AD197">
+            <v>1483</v>
+          </cell>
+          <cell r="AE197">
+            <v>1670</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="AD198">
+            <v>1485</v>
+          </cell>
+          <cell r="AE198">
+            <v>1668</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="AD199">
+            <v>1487</v>
+          </cell>
+          <cell r="AE199">
+            <v>1669</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="AD200">
+            <v>1487</v>
+          </cell>
+          <cell r="AE200">
+            <v>1678</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="AD201">
+            <v>1490</v>
+          </cell>
+          <cell r="AE201">
+            <v>1673</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="AD202">
+            <v>1490</v>
+          </cell>
+          <cell r="AE202">
+            <v>1718</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="AD203">
+            <v>1491</v>
+          </cell>
+          <cell r="AE203">
+            <v>1690</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="AD204">
+            <v>1491</v>
+          </cell>
+          <cell r="AE204">
+            <v>1710</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="AD205">
+            <v>1492</v>
+          </cell>
+          <cell r="AE205">
+            <v>1736</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="AD206">
+            <v>1494</v>
+          </cell>
+          <cell r="AE206">
+            <v>1715</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="AD207">
+            <v>1496</v>
+          </cell>
+          <cell r="AE207">
+            <v>1695</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="AD208">
+            <v>1497</v>
+          </cell>
+          <cell r="AE208">
+            <v>1660</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="AD209">
+            <v>1498</v>
+          </cell>
+          <cell r="AE209">
+            <v>1711</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="AD210">
+            <v>1502</v>
+          </cell>
+          <cell r="AE210">
+            <v>1691</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="AD211">
+            <v>1503</v>
+          </cell>
+          <cell r="AE211">
+            <v>1708</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="AD212">
+            <v>1504</v>
+          </cell>
+          <cell r="AE212">
+            <v>1601</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="AD213">
+            <v>1504</v>
+          </cell>
+          <cell r="AE213">
+            <v>1588</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="AD214">
+            <v>1520</v>
+          </cell>
+          <cell r="AE214">
+            <v>1714</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -938,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
@@ -6319,4 +7508,19 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E91299E-5703-4C30-BB51-6E6B77DB0FD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/different_costs-rand-multiple_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-rand-multiple_destination-100nodes-80_300flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69659F43-2B6C-4A33-84A9-22C6F936FB62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{24FA13AC-DF30-4F5E-8029-148B9BA0EABD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="different_costs-rand-multiple_d" sheetId="1" r:id="rId1"/>
     <sheet name="graphics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -779,16 +776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>524671</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>226221</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>70127</xdr:rowOff>
+      <xdr:rowOff>95527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -811,7 +808,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16459200" y="184150"/>
+          <a:off x="15551150" y="209550"/>
           <a:ext cx="4791871" cy="3200677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -998,834 +995,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="bar-oriq-destq"/>
-      <sheetName val="Planilha2"/>
-      <sheetName val="Planilha1"/>
-      <sheetName val="bar-oq-mdest"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="114">
-          <cell r="AD114" t="str">
-            <v>z^o_2(x)</v>
-          </cell>
-          <cell r="AE114" t="str">
-            <v>z^f_2(x)</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="AD115">
-            <v>1402</v>
-          </cell>
-          <cell r="AE115">
-            <v>1600</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="AD116">
-            <v>1402</v>
-          </cell>
-          <cell r="AE116">
-            <v>1629</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="AD117">
-            <v>1404</v>
-          </cell>
-          <cell r="AE117">
-            <v>1649</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="AD118">
-            <v>1407</v>
-          </cell>
-          <cell r="AE118">
-            <v>1592</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="AD119">
-            <v>1409</v>
-          </cell>
-          <cell r="AE119">
-            <v>1604</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="AD120">
-            <v>1409</v>
-          </cell>
-          <cell r="AE120">
-            <v>1606</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="AD121">
-            <v>1414</v>
-          </cell>
-          <cell r="AE121">
-            <v>1628</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="AD122">
-            <v>1415</v>
-          </cell>
-          <cell r="AE122">
-            <v>1662</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="AD123">
-            <v>1419</v>
-          </cell>
-          <cell r="AE123">
-            <v>1569</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="AD124">
-            <v>1421</v>
-          </cell>
-          <cell r="AE124">
-            <v>1599</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="AD125">
-            <v>1423</v>
-          </cell>
-          <cell r="AE125">
-            <v>1529</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="AD126">
-            <v>1423</v>
-          </cell>
-          <cell r="AE126">
-            <v>1637</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="AD127">
-            <v>1425</v>
-          </cell>
-          <cell r="AE127">
-            <v>1608</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="AD128">
-            <v>1425</v>
-          </cell>
-          <cell r="AE128">
-            <v>1647</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="AD129">
-            <v>1427</v>
-          </cell>
-          <cell r="AE129">
-            <v>1633</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="AD130">
-            <v>1427</v>
-          </cell>
-          <cell r="AE130">
-            <v>1610</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="AD131">
-            <v>1429</v>
-          </cell>
-          <cell r="AE131">
-            <v>1619</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="AD132">
-            <v>1429</v>
-          </cell>
-          <cell r="AE132">
-            <v>1639</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="AD133">
-            <v>1430</v>
-          </cell>
-          <cell r="AE133">
-            <v>1512</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="AD134">
-            <v>1430</v>
-          </cell>
-          <cell r="AE134">
-            <v>1648</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="AD135">
-            <v>1430</v>
-          </cell>
-          <cell r="AE135">
-            <v>1652</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="AD136">
-            <v>1432</v>
-          </cell>
-          <cell r="AE136">
-            <v>1631</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="AD137">
-            <v>1433</v>
-          </cell>
-          <cell r="AE137">
-            <v>1655</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="AD138">
-            <v>1437</v>
-          </cell>
-          <cell r="AE138">
-            <v>1625</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="AD139">
-            <v>1438</v>
-          </cell>
-          <cell r="AE139">
-            <v>1596</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="AD140">
-            <v>1438</v>
-          </cell>
-          <cell r="AE140">
-            <v>1614</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="AD141">
-            <v>1440</v>
-          </cell>
-          <cell r="AE141">
-            <v>1633</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="AD142">
-            <v>1440</v>
-          </cell>
-          <cell r="AE142">
-            <v>1685</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="AD143">
-            <v>1441</v>
-          </cell>
-          <cell r="AE143">
-            <v>1641</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="AD144">
-            <v>1441</v>
-          </cell>
-          <cell r="AE144">
-            <v>1637</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="AD145">
-            <v>1441</v>
-          </cell>
-          <cell r="AE145">
-            <v>1636</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="AD146">
-            <v>1442</v>
-          </cell>
-          <cell r="AE146">
-            <v>1648</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="AD147">
-            <v>1443</v>
-          </cell>
-          <cell r="AE147">
-            <v>1635</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="AD148">
-            <v>1443</v>
-          </cell>
-          <cell r="AE148">
-            <v>1650</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="AD149">
-            <v>1443</v>
-          </cell>
-          <cell r="AE149">
-            <v>1556</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="AD150">
-            <v>1444</v>
-          </cell>
-          <cell r="AE150">
-            <v>1617</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="AD151">
-            <v>1444</v>
-          </cell>
-          <cell r="AE151">
-            <v>1641</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="AD152">
-            <v>1447</v>
-          </cell>
-          <cell r="AE152">
-            <v>1539</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="AD153">
-            <v>1451</v>
-          </cell>
-          <cell r="AE153">
-            <v>1647</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="AD154">
-            <v>1452</v>
-          </cell>
-          <cell r="AE154">
-            <v>1630</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="AD155">
-            <v>1452</v>
-          </cell>
-          <cell r="AE155">
-            <v>1605</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="AD156">
-            <v>1453</v>
-          </cell>
-          <cell r="AE156">
-            <v>1652</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="AD157">
-            <v>1453</v>
-          </cell>
-          <cell r="AE157">
-            <v>1658</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="AD158">
-            <v>1453</v>
-          </cell>
-          <cell r="AE158">
-            <v>1620</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="AD159">
-            <v>1454</v>
-          </cell>
-          <cell r="AE159">
-            <v>1653</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="AD160">
-            <v>1455</v>
-          </cell>
-          <cell r="AE160">
-            <v>1644</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="AD161">
-            <v>1455</v>
-          </cell>
-          <cell r="AE161">
-            <v>1625</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="AD162">
-            <v>1456</v>
-          </cell>
-          <cell r="AE162">
-            <v>1702</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="AD163">
-            <v>1456</v>
-          </cell>
-          <cell r="AE163">
-            <v>1654</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="AD164">
-            <v>1456</v>
-          </cell>
-          <cell r="AE164">
-            <v>1648</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="AD165">
-            <v>1457</v>
-          </cell>
-          <cell r="AE165">
-            <v>1667</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="AD166">
-            <v>1457</v>
-          </cell>
-          <cell r="AE166">
-            <v>1676</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="AD167">
-            <v>1460</v>
-          </cell>
-          <cell r="AE167">
-            <v>1567</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="AD168">
-            <v>1460</v>
-          </cell>
-          <cell r="AE168">
-            <v>1681</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="AD169">
-            <v>1460</v>
-          </cell>
-          <cell r="AE169">
-            <v>1640</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="AD170">
-            <v>1460</v>
-          </cell>
-          <cell r="AE170">
-            <v>1659</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="AD171">
-            <v>1462</v>
-          </cell>
-          <cell r="AE171">
-            <v>1658</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="AD172">
-            <v>1462</v>
-          </cell>
-          <cell r="AE172">
-            <v>1677</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="AD173">
-            <v>1465</v>
-          </cell>
-          <cell r="AE173">
-            <v>1639</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="AD174">
-            <v>1465</v>
-          </cell>
-          <cell r="AE174">
-            <v>1630</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="AD175">
-            <v>1465</v>
-          </cell>
-          <cell r="AE175">
-            <v>1677</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="AD176">
-            <v>1465</v>
-          </cell>
-          <cell r="AE176">
-            <v>1616</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="AD177">
-            <v>1465</v>
-          </cell>
-          <cell r="AE177">
-            <v>1678</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="AD178">
-            <v>1465</v>
-          </cell>
-          <cell r="AE178">
-            <v>1698</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="AD179">
-            <v>1466</v>
-          </cell>
-          <cell r="AE179">
-            <v>1571</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="AD180">
-            <v>1466</v>
-          </cell>
-          <cell r="AE180">
-            <v>1643</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="AD181">
-            <v>1467</v>
-          </cell>
-          <cell r="AE181">
-            <v>1675</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="AD182">
-            <v>1468</v>
-          </cell>
-          <cell r="AE182">
-            <v>1652</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="AD183">
-            <v>1468</v>
-          </cell>
-          <cell r="AE183">
-            <v>1636</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="AD184">
-            <v>1469</v>
-          </cell>
-          <cell r="AE184">
-            <v>1638</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="AD185">
-            <v>1469</v>
-          </cell>
-          <cell r="AE185">
-            <v>1655</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="AD186">
-            <v>1472</v>
-          </cell>
-          <cell r="AE186">
-            <v>1577</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="AD187">
-            <v>1473</v>
-          </cell>
-          <cell r="AE187">
-            <v>1572</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="AD188">
-            <v>1474</v>
-          </cell>
-          <cell r="AE188">
-            <v>1665</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="AD189">
-            <v>1476</v>
-          </cell>
-          <cell r="AE189">
-            <v>1712</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="AD190">
-            <v>1477</v>
-          </cell>
-          <cell r="AE190">
-            <v>1665</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="AD191">
-            <v>1477</v>
-          </cell>
-          <cell r="AE191">
-            <v>1652</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="AD192">
-            <v>1477</v>
-          </cell>
-          <cell r="AE192">
-            <v>1686</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="AD193">
-            <v>1478</v>
-          </cell>
-          <cell r="AE193">
-            <v>1591</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="AD194">
-            <v>1478</v>
-          </cell>
-          <cell r="AE194">
-            <v>1654</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="AD195">
-            <v>1479</v>
-          </cell>
-          <cell r="AE195">
-            <v>1702</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="AD196">
-            <v>1483</v>
-          </cell>
-          <cell r="AE196">
-            <v>1671</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="AD197">
-            <v>1483</v>
-          </cell>
-          <cell r="AE197">
-            <v>1670</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="AD198">
-            <v>1485</v>
-          </cell>
-          <cell r="AE198">
-            <v>1668</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="AD199">
-            <v>1487</v>
-          </cell>
-          <cell r="AE199">
-            <v>1669</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="AD200">
-            <v>1487</v>
-          </cell>
-          <cell r="AE200">
-            <v>1678</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="AD201">
-            <v>1490</v>
-          </cell>
-          <cell r="AE201">
-            <v>1673</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="AD202">
-            <v>1490</v>
-          </cell>
-          <cell r="AE202">
-            <v>1718</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="AD203">
-            <v>1491</v>
-          </cell>
-          <cell r="AE203">
-            <v>1690</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="AD204">
-            <v>1491</v>
-          </cell>
-          <cell r="AE204">
-            <v>1710</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="AD205">
-            <v>1492</v>
-          </cell>
-          <cell r="AE205">
-            <v>1736</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="AD206">
-            <v>1494</v>
-          </cell>
-          <cell r="AE206">
-            <v>1715</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="AD207">
-            <v>1496</v>
-          </cell>
-          <cell r="AE207">
-            <v>1695</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="AD208">
-            <v>1497</v>
-          </cell>
-          <cell r="AE208">
-            <v>1660</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="AD209">
-            <v>1498</v>
-          </cell>
-          <cell r="AE209">
-            <v>1711</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="AD210">
-            <v>1502</v>
-          </cell>
-          <cell r="AE210">
-            <v>1691</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="AD211">
-            <v>1503</v>
-          </cell>
-          <cell r="AE211">
-            <v>1708</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="AD212">
-            <v>1504</v>
-          </cell>
-          <cell r="AE212">
-            <v>1601</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="AD213">
-            <v>1504</v>
-          </cell>
-          <cell r="AE213">
-            <v>1588</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="AD214">
-            <v>1520</v>
-          </cell>
-          <cell r="AE214">
-            <v>1714</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7514,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E91299E-5703-4C30-BB51-6E6B77DB0FD8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
